--- a/assets/data/ranking_anual.xlsx
+++ b/assets/data/ranking_anual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c01a02ebe30ce28/Marco's PC/Trivia 2025/Material de apoio/Projeto Site/Site completo/assets/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bih14\OneDrive\Marco's PC\Estudos\Lima solutions\site_lestriveiros\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="8_{5E1C13B7-4812-404A-9DD3-3011424B3FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CDB17C6-EE9C-4A6F-A178-1996F3A7216C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DA457-48C0-43C9-9F67-886DFF48348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{17B7C58C-9BD1-4121-BFEB-3B3EBBA28367}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{17B7C58C-9BD1-4121-BFEB-3B3EBBA28367}"/>
   </bookViews>
   <sheets>
     <sheet name="Classificação anual" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Equipe</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>TRIVIA 6 - La Fontaine</t>
+  </si>
+  <si>
+    <t>TRIVIA 7 - Memento</t>
   </si>
 </sst>
 </file>
@@ -281,10 +284,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,13 +603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3BC04E-F502-4E56-9414-B45D69CA26FB}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -626,7 +625,7 @@
     <col min="10" max="23" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,14 +650,17 @@
       <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6">
-        <f>SUM(C2:H2)</f>
-        <v>65</v>
+        <f>SUM(C2:I2)</f>
+        <v>70</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -678,14 +680,17 @@
       <c r="H2" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B13" si="0">SUM(C3:H3)</f>
-        <v>46</v>
+        <f t="shared" ref="B3:B13" si="0">SUM(C3:I3)</f>
+        <v>49</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -705,14 +710,17 @@
       <c r="H3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
@@ -732,14 +740,17 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -759,14 +770,17 @@
       <c r="H5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -786,8 +800,11 @@
       <c r="H6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -813,14 +830,17 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -840,8 +860,11 @@
       <c r="H8" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -867,8 +890,11 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,11 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -921,8 +950,11 @@
       <c r="H11" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -948,8 +980,11 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -973,6 +1008,9 @@
         <v>0</v>
       </c>
       <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>0</v>
       </c>
     </row>

--- a/assets/data/ranking_anual.xlsx
+++ b/assets/data/ranking_anual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bih14\OneDrive\Marco's PC\Estudos\Lima solutions\site_lestriveiros\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bih14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DA457-48C0-43C9-9F67-886DFF48348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD46D4E-2DE6-40A5-905D-1214A5AEF883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{17B7C58C-9BD1-4121-BFEB-3B3EBBA28367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{17B7C58C-9BD1-4121-BFEB-3B3EBBA28367}"/>
   </bookViews>
   <sheets>
     <sheet name="Classificação anual" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Equipe</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>TRIVIA 7 - Memento</t>
+  </si>
+  <si>
+    <t>TRIVIA 8 - Memento</t>
+  </si>
+  <si>
+    <t>Glitter Gang</t>
   </si>
 </sst>
 </file>
@@ -603,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3BC04E-F502-4E56-9414-B45D69CA26FB}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -622,10 +628,11 @@
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="23" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,8 +660,11 @@
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -683,8 +693,11 @@
       <c r="I2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -713,8 +726,11 @@
       <c r="I3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,8 +759,11 @@
       <c r="I4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -773,8 +792,11 @@
       <c r="I5" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -803,8 +825,11 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -833,8 +858,11 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -863,8 +891,11 @@
       <c r="I8" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -893,8 +924,11 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -923,8 +957,11 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -953,8 +990,11 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -983,8 +1023,11 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1012,6 +1055,42 @@
       </c>
       <c r="I13" s="3">
         <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" ref="B14" si="1">SUM(C14:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/ranking_anual.xlsx
+++ b/assets/data/ranking_anual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bih14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD46D4E-2DE6-40A5-905D-1214A5AEF883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC6465-C114-4273-9D63-E995A86EF162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{17B7C58C-9BD1-4121-BFEB-3B3EBBA28367}"/>
   </bookViews>
@@ -615,7 +615,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -669,8 +669,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="6">
-        <f>SUM(C2:I2)</f>
-        <v>70</v>
+        <f>SUM(C2:J2)</f>
+        <v>85</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B13" si="0">SUM(C3:I3)</f>
+        <f t="shared" ref="B3:B14" si="0">SUM(C3:J3)</f>
         <v>49</v>
       </c>
       <c r="C3" s="3">
@@ -736,7 +736,7 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1065,8 +1065,8 @@
         <v>22</v>
       </c>
       <c r="B14" s="6">
-        <f t="shared" ref="B14" si="1">SUM(C14:I14)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
